--- a/natmiOut/OldD0/LR-pairs_lrc2p/App-Gpc1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/App-Gpc1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H2">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I2">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J2">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.0346529173435</v>
+        <v>1.564139666666667</v>
       </c>
       <c r="N2">
-        <v>1.0346529173435</v>
+        <v>4.692419</v>
       </c>
       <c r="O2">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="P2">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="Q2">
-        <v>83.75128206677873</v>
+        <v>129.5584529329171</v>
       </c>
       <c r="R2">
-        <v>83.75128206677873</v>
+        <v>1166.026076396254</v>
       </c>
       <c r="S2">
-        <v>0.03670996113984618</v>
+        <v>0.05261915465750595</v>
       </c>
       <c r="T2">
-        <v>0.03670996113984618</v>
+        <v>0.05261915465750595</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H3">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I3">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J3">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.27581319541605</v>
+        <v>3.316850333333333</v>
       </c>
       <c r="N3">
-        <v>3.27581319541605</v>
+        <v>9.950551000000001</v>
       </c>
       <c r="O3">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="P3">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="Q3">
-        <v>265.1648203261976</v>
+        <v>274.7363339441962</v>
       </c>
       <c r="R3">
-        <v>265.1648203261976</v>
+        <v>2472.627005497766</v>
       </c>
       <c r="S3">
-        <v>0.1162273580727695</v>
+        <v>0.1115820181438189</v>
       </c>
       <c r="T3">
-        <v>0.1162273580727695</v>
+        <v>0.1115820181438189</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H4">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I4">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J4">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.51289612165149</v>
+        <v>4.534428999999999</v>
       </c>
       <c r="N4">
-        <v>4.51289612165149</v>
+        <v>13.603287</v>
       </c>
       <c r="O4">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="P4">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="Q4">
-        <v>365.3020541351496</v>
+        <v>375.5889698943046</v>
       </c>
       <c r="R4">
-        <v>365.3020541351496</v>
+        <v>3380.300729048741</v>
       </c>
       <c r="S4">
-        <v>0.1601196289856762</v>
+        <v>0.1525425292377854</v>
       </c>
       <c r="T4">
-        <v>0.1601196289856762</v>
+        <v>0.1525425292377855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H5">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I5">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J5">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.0346529173435</v>
+        <v>1.564139666666667</v>
       </c>
       <c r="N5">
-        <v>1.0346529173435</v>
+        <v>4.692419</v>
       </c>
       <c r="O5">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="P5">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="Q5">
-        <v>157.2993009569585</v>
+        <v>239.0810645408463</v>
       </c>
       <c r="R5">
-        <v>157.2993009569585</v>
+        <v>2151.729580867617</v>
       </c>
       <c r="S5">
-        <v>0.06894761588068207</v>
+        <v>0.09710090870928943</v>
       </c>
       <c r="T5">
-        <v>0.06894761588068207</v>
+        <v>0.09710090870928946</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H6">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I6">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J6">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.27581319541605</v>
+        <v>3.316850333333333</v>
       </c>
       <c r="N6">
-        <v>3.27581319541605</v>
+        <v>9.950551000000001</v>
       </c>
       <c r="O6">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="P6">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="Q6">
-        <v>498.0251029761062</v>
+        <v>506.9854857053437</v>
       </c>
       <c r="R6">
-        <v>498.0251029761062</v>
+        <v>4562.869371348093</v>
       </c>
       <c r="S6">
-        <v>0.2182949529338941</v>
+        <v>0.2059081987900332</v>
       </c>
       <c r="T6">
-        <v>0.2182949529338941</v>
+        <v>0.2059081987900332</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H7">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I7">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J7">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.51289612165149</v>
+        <v>4.534428999999999</v>
       </c>
       <c r="N7">
-        <v>4.51289612165149</v>
+        <v>13.603287</v>
       </c>
       <c r="O7">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="P7">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="Q7">
-        <v>686.1000373437051</v>
+        <v>693.0941881393489</v>
       </c>
       <c r="R7">
-        <v>686.1000373437051</v>
+        <v>6237.84769325414</v>
       </c>
       <c r="S7">
-        <v>0.3007321808978627</v>
+        <v>0.2814947959961085</v>
       </c>
       <c r="T7">
-        <v>0.3007321808978627</v>
+        <v>0.2814947959961085</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H8">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I8">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J8">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.0346529173435</v>
+        <v>1.564139666666667</v>
       </c>
       <c r="N8">
-        <v>1.0346529173435</v>
+        <v>4.692419</v>
       </c>
       <c r="O8">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="P8">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="Q8">
-        <v>26.47672326601245</v>
+        <v>40.39293399679399</v>
       </c>
       <c r="R8">
-        <v>26.47672326601245</v>
+        <v>363.5364059711459</v>
       </c>
       <c r="S8">
-        <v>0.01160530869761242</v>
+        <v>0.01640527493909059</v>
       </c>
       <c r="T8">
-        <v>0.01160530869761242</v>
+        <v>0.0164052749390906</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H9">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I9">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J9">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.27581319541605</v>
+        <v>3.316850333333333</v>
       </c>
       <c r="N9">
-        <v>3.27581319541605</v>
+        <v>9.950551000000001</v>
       </c>
       <c r="O9">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="P9">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="Q9">
-        <v>83.82791754830363</v>
+        <v>85.65559677742598</v>
       </c>
       <c r="R9">
-        <v>83.82791754830363</v>
+        <v>770.9003709968339</v>
       </c>
       <c r="S9">
-        <v>0.03674355209486546</v>
+        <v>0.03478835222311623</v>
       </c>
       <c r="T9">
-        <v>0.03674355209486546</v>
+        <v>0.03478835222311624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H10">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I10">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J10">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.51289612165149</v>
+        <v>4.534428999999999</v>
       </c>
       <c r="N10">
-        <v>4.51289612165149</v>
+        <v>13.603287</v>
       </c>
       <c r="O10">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="P10">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="Q10">
-        <v>115.4848159593584</v>
+        <v>117.098808510162</v>
       </c>
       <c r="R10">
-        <v>115.4848159593584</v>
+        <v>1053.889276591458</v>
       </c>
       <c r="S10">
-        <v>0.05061944129679153</v>
+        <v>0.04755876730325165</v>
       </c>
       <c r="T10">
-        <v>0.05061944129679153</v>
+        <v>0.04755876730325166</v>
       </c>
     </row>
   </sheetData>
